--- a/users.xlsx
+++ b/users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laptop\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\selenium-reg-account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69871E59-4855-49FF-B37D-AED21DE2ACB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EFEF65-77DA-478C-8D59-1E81E1BE8A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="3750" windowWidth="15060" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="5820" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,27 +30,9 @@
     <t>Note</t>
   </si>
   <si>
-    <t>SĐT</t>
-  </si>
-  <si>
-    <t>STK</t>
-  </si>
-  <si>
-    <t>HVT</t>
-  </si>
-  <si>
-    <t>Chinh nhánh Bank</t>
-  </si>
-  <si>
-    <t>pass rút tiền</t>
-  </si>
-  <si>
     <t>Chi Nhánh Điện Biên Phủ TP Hà Nội</t>
   </si>
   <si>
-    <t>Mật Khẩu đăng nhập</t>
-  </si>
-  <si>
     <t>Random</t>
   </si>
   <si>
@@ -70,6 +52,24 @@
   </si>
   <si>
     <t>9704229205566778899</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>bank_account</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>pass_money</t>
+  </si>
+  <si>
+    <t>pass_login</t>
   </si>
 </sst>
 </file>
@@ -456,87 +456,87 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F2" s="5">
         <v>111111</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F3" s="5">
         <v>111111</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/users.xlsx
+++ b/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\selenium-reg-account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EFEF65-77DA-478C-8D59-1E81E1BE8A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3A2B5F-92C6-4AB1-853C-C0922F316E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="5820" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,24 +36,9 @@
     <t>Random</t>
   </si>
   <si>
-    <t>Trần chí phèo</t>
-  </si>
-  <si>
-    <t>nguyễn thị nợ</t>
-  </si>
-  <si>
-    <t>0925081234</t>
-  </si>
-  <si>
     <t>0928101023</t>
   </si>
   <si>
-    <t>9704229201311223344</t>
-  </si>
-  <si>
-    <t>9704229205566778899</t>
-  </si>
-  <si>
     <t>phone</t>
   </si>
   <si>
@@ -70,6 +55,21 @@
   </si>
   <si>
     <t>pass_login</t>
+  </si>
+  <si>
+    <t>0925081574</t>
+  </si>
+  <si>
+    <t>Nguyễn văn nam</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Kinh</t>
+  </si>
+  <si>
+    <t>9704229201311221234</t>
+  </si>
+  <si>
+    <t>9704229205566777742</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,7 +464,7 @@
     <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" customWidth="1"/>
     <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.33203125" customWidth="1"/>
@@ -475,22 +475,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
@@ -498,13 +498,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>1</v>
@@ -521,13 +521,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>1</v>

--- a/users.xlsx
+++ b/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\selenium-reg-account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3A2B5F-92C6-4AB1-853C-C0922F316E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EAB2AD-FC38-4F42-946B-47802AF81537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="5820" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Note</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Random</t>
   </si>
   <si>
-    <t>0928101023</t>
-  </si>
-  <si>
     <t>phone</t>
   </si>
   <si>
@@ -57,19 +54,13 @@
     <t>pass_login</t>
   </si>
   <si>
-    <t>0925081574</t>
-  </si>
-  <si>
-    <t>Nguyễn văn nam</t>
-  </si>
-  <si>
-    <t>Hoàng Thị Kinh</t>
-  </si>
-  <si>
-    <t>9704229201311221234</t>
-  </si>
-  <si>
-    <t>9704229205566777742</t>
+    <t>09778081574</t>
+  </si>
+  <si>
+    <t>97042292013666234</t>
+  </si>
+  <si>
+    <t>Nguyễn văn hoàng</t>
   </si>
 </sst>
 </file>
@@ -456,7 +447,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,22 +466,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
@@ -498,10 +489,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>11</v>
@@ -517,27 +508,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>111111</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/users.xlsx
+++ b/users.xlsx
@@ -43,13 +43,13 @@
     <t xml:space="preserve">pass_login</t>
   </si>
   <si>
-    <t xml:space="preserve">09778081567</t>
+    <t xml:space="preserve">09747081784</t>
   </si>
   <si>
     <t xml:space="preserve">97042292013666217</t>
   </si>
   <si>
-    <t xml:space="preserve">Nguyễn văn Hiếu</t>
+    <t xml:space="preserve">Nguyễn Hoang</t>
   </si>
   <si>
     <t xml:space="preserve">Chi Nhánh Điện Biên Phủ TP Hà Nội</t>
@@ -158,48 +158,52 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -283,74 +287,74 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="54.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="31.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="54.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="32.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
+      <c r="A2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="7" t="n">
         <v>111222</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="10"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
